--- a/best_results.xlsx
+++ b/best_results.xlsx
@@ -350,7 +350,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="B7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -399,28 +399,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.7258</v>
+        <v>0.6774</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.7222</v>
+        <v>0.6667</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0.6957</v>
+        <v>0.7826</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0.9</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -428,28 +428,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.7258</v>
+        <v>0.8065</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.7037</v>
+        <v>0.6852</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0.7826</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
       <c r="F3" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G3" s="0" t="n">
         <v>0.84</v>
       </c>
-      <c r="G3" s="0" t="n">
-        <v>0.85</v>
-      </c>
       <c r="H3" s="0" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -542,35 +542,35 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="n">
         <f aca="false">AVERAGE(B2:B6)</f>
-        <v>0.72782</v>
+        <v>0.73428</v>
       </c>
       <c r="C7" s="1" t="n">
         <f aca="false">AVERAGE(C2:C6)</f>
-        <v>0.7168</v>
+        <v>0.702</v>
       </c>
       <c r="D7" s="1" t="n">
         <f aca="false">AVERAGE(D2:D6)</f>
-        <v>0.7069</v>
+        <v>0.72428</v>
       </c>
       <c r="E7" s="1" t="n">
         <f aca="false">AVERAGE(E2:E6)</f>
-        <v>0.79926</v>
+        <v>0.81126</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">AVERAGE(F2:F6)</f>
-        <v>0.834</v>
+        <v>0.84</v>
       </c>
       <c r="G7" s="1" t="n">
         <f aca="false">AVERAGE(G2:G6)</f>
-        <v>0.816</v>
+        <v>0.82</v>
       </c>
       <c r="H7" s="1" t="n">
         <f aca="false">AVERAGE(H2:H6)</f>
-        <v>0.838</v>
+        <v>0.832</v>
       </c>
       <c r="I7" s="1" t="n">
         <f aca="false">AVERAGE(I2:I6)</f>
-        <v>0.89</v>
+        <v>0.896</v>
       </c>
     </row>
   </sheetData>
